--- a/RocketGame/Test.xlsx
+++ b/RocketGame/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Команда</t>
   </si>
@@ -47,76 +47,85 @@
     <t>Такт 6</t>
   </si>
   <si>
+    <t>Такт 7</t>
+  </si>
+  <si>
+    <t>Такт 8</t>
+  </si>
+  <si>
+    <t>Такт 9</t>
+  </si>
+  <si>
+    <t>Синие</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>3/1</t>
+  </si>
+  <si>
+    <t>У</t>
+  </si>
+  <si>
+    <t>АГ-Кс:L</t>
+  </si>
+  <si>
+    <t>АР-Кс:L</t>
+  </si>
+  <si>
+    <t>Д-Кс:X</t>
+  </si>
+  <si>
+    <t>Р:В</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>3/2</t>
+  </si>
+  <si>
     <t>Красные</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>7/2</t>
-  </si>
-  <si>
-    <t>Move with result</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2121</t>
+  </si>
+  <si>
+    <t>1/1</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>2222</t>
-  </si>
-  <si>
-    <t>6/2</t>
-  </si>
-  <si>
-    <t>Синие</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>2121</t>
-  </si>
-  <si>
-    <t>1/5</t>
+    <t>22222</t>
+  </si>
+  <si>
+    <t>1/4</t>
   </si>
   <si>
     <t>О</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>3232</t>
-  </si>
-  <si>
-    <t>Желтые</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>3131</t>
-  </si>
-  <si>
-    <t>6/1</t>
-  </si>
-  <si>
-    <t>Р:В</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1212</t>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>Р:П</t>
   </si>
 </sst>
 </file>
@@ -162,7 +171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -202,197 +211,142 @@
       <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
